--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1044959.667850215</v>
+        <v>1045743.813788243</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
+        <v>19.20171008547518</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>12.45968987784987</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>5.211223902333198</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -902,61 +904,61 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>30.87444881483986</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08398788521271</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1136,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>104.6224667287184</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U11" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8.438698031532754</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>153.6816173514498</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1543,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>141.8456729477347</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>85.58789700114427</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,7 +1940,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>84.97365353379641</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2099,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>48.57345760946026</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,25 +2323,25 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,10 +2365,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>12.94771755361648</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>62.30512642017684</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,64 +2484,64 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,67 +2563,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="F26" t="n">
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,25 +2639,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>39.08117332487345</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>1.668137753378074</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,67 +2794,67 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2880,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>139.0780371879869</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>44.60315859947005</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3047,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3159,7 +3161,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>63.81846325436216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>58.06228857481308</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>68.57463348860362</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3594,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>45.95195451506962</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>61.69344177119282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>110.9174757594852</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>169.0708280266249</v>
       </c>
-      <c r="H41" t="n">
-        <v>205.5178444382804</v>
-      </c>
       <c r="I41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>41.3997004011064</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.311618392921636</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4334,13 +4336,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.09272902505</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C3" t="n">
-        <v>170.639699743923</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="D3" t="n">
-        <v>21.70529008267172</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="E3" t="n">
-        <v>21.70529008267172</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F3" t="n">
-        <v>21.70529008267172</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4439,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V3" t="n">
-        <v>513.308066045118</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W3" t="n">
-        <v>513.308066045118</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X3" t="n">
-        <v>513.308066045118</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y3" t="n">
-        <v>513.308066045118</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="4">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4568,16 +4570,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>552.6865112859393</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C6" t="n">
-        <v>378.2334820048123</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="D6" t="n">
-        <v>229.2990723435611</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="E6" t="n">
-        <v>70.06161733810558</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F6" t="n">
-        <v>70.06161733810558</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G6" t="n">
-        <v>70.06161733810558</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
-        <v>70.06161733810558</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
         <v>16.44142755506243</v>
@@ -4647,49 +4649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="7">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4834,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="V8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="W8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>340.5829991502264</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>166.1299698690994</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4914,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>16.44142755506243</v>
+        <v>716.3921184311838</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>508.7983361702945</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5042,19 +5044,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5069,16 +5071,16 @@
         <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
         <v>224.0352098159517</v>
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>813.547440347533</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>664.6130306862817</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5121,49 +5123,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,10 +5281,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="15">
@@ -5337,22 +5339,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="D15" t="n">
-        <v>499.7196235425392</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="E15" t="n">
-        <v>340.4821685370837</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F15" t="n">
-        <v>193.9476105639687</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5601,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5695,16 +5697,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5837,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>914.9930569152218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>914.9930569152218</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>914.9930569152218</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>914.9930569152218</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>914.9930569152218</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W21" t="n">
-        <v>671.5442802711217</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X21" t="n">
-        <v>671.5442802711217</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.8126749707503</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C24" t="n">
-        <v>32.35964568962331</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D24" t="n">
-        <v>32.35964568962331</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E24" t="n">
-        <v>32.35964568962331</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6074,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="X24" t="n">
-        <v>582.7883107557723</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y24" t="n">
-        <v>375.0280119908184</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6268,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>548.4453565401495</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C27" t="n">
-        <v>548.4453565401495</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D27" t="n">
-        <v>548.4453565401495</v>
+        <v>134.3352663323082</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>134.3352663323082</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>134.3352663323082</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6314,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4453565401495</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>298.4948343740486</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>298.4948343740486</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>298.4948343740486</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>298.4948343740486</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6548,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
         <v>725.4530095217538</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W30" t="n">
-        <v>298.4948343740486</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X30" t="n">
-        <v>298.4948343740486</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y30" t="n">
-        <v>298.4948343740486</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6679,25 @@
         <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X32" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V32" t="n">
+      <c r="Y32" t="n">
         <v>477.1596022224361</v>
-      </c>
-      <c r="W32" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="X32" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>689.4702815141908</v>
+        <v>456.7918502977974</v>
       </c>
       <c r="C33" t="n">
-        <v>689.4702815141908</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>625.0071873178654</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>625.0071873178654</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>625.0071873178654</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>625.0071873178654</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>625.0071873178654</v>
       </c>
       <c r="Y33" t="n">
-        <v>689.4702815141908</v>
+        <v>625.0071873178654</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>567.6182002269572</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C36" t="n">
-        <v>567.6182002269572</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D36" t="n">
-        <v>567.6182002269572</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>519.185909765926</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="W36" t="n">
-        <v>735.8335372470253</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="X36" t="n">
-        <v>735.8335372470253</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="Y36" t="n">
-        <v>735.8335372470253</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7193,10 +7195,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S38" t="n">
         <v>749.627473042513</v>
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>491.7024528141798</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C39" t="n">
-        <v>317.2494235330527</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D39" t="n">
-        <v>317.2494235330527</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="E39" t="n">
-        <v>158.0119685275972</v>
+        <v>179.0663943744209</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>179.0663943744209</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>179.0663943744209</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>65.69725878200022</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>901.7405476609465</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>901.7405476609465</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>699.5539530197126</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>699.5539530197126</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>699.5539530197126</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>699.5539530197126</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>491.7024528141798</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>491.7024528141798</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="40">
@@ -7357,7 +7359,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
         <v>41.77557929797318</v>
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
         <v>28.51141680214578</v>
@@ -7415,7 +7417,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7439,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>199.2900309704538</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>24.83700168932677</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7494,10 +7496,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
         <v>435.9652341458732</v>
@@ -7530,10 +7532,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="Y42" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.90708355515102</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7655,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7670,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.90708355515102</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,16 +7733,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>29.03990215807806</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>813.6758036188573</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>813.6758036188573</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>813.6758036188573</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>813.6758036188573</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>813.6758036188573</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>606.0820213579681</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>398.4882390970787</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.8944568361894</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7993,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>144.0674440055713</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8690,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,13 +8783,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>290.7443071551351</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>234.2160227667432</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9485,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,13 +9722,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10431,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11063,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11142,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>151.2801117021122</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11391,7 +11393,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22565,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>189.8183595007702</v>
       </c>
       <c r="T2" t="n">
-        <v>42.07573218289394</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>145.1853905775511</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>132.1322932608774</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22790,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22841,10 +22843,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,25 +22865,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>126.7706316405611</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31264496620237</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -23024,10 +23026,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23072,22 +23074,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23121,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>44.92126469973746</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>101.150518474759</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23309,10 +23311,10 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U11" t="n">
-        <v>230.1853526822936</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>164.269800956783</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>46.48311134337177</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23431,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>95.24412853877564</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23577,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>15.79940750766625</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>51.75562016206636</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23826,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>27.26179070270005</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23987,10 +23989,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>51.58437654318287</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,25 +24211,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>132.1214948397674</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>189.3898567407428</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24525,25 +24527,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>118.5639071305275</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.6753794098326</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,22 +24727,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24768,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>5.991175205397013</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>161.1698266040074</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24935,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>136.3462654404594</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>99.58279188058786</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,16 +25283,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>157.3667485923712</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>43.44467833634546</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.46439238145032</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,7 +25532,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>113.0991222774871</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>117.0281136687963</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>246.2319094885102</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>170.4039740891423</v>
       </c>
       <c r="I41" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>139.1334471717171</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>110.3488012740662</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25770,7 +25772,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>320.273092030292</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>95.94381676210423</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>91.8462157597215</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>394445.1187543755</v>
+        <v>394445.1187543756</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394445.1187543756</v>
+        <v>394445.1187543757</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415461.2262734029</v>
+        <v>415461.2262734032</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415461.226273403</v>
+        <v>415461.2262734029</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415461.226273403</v>
+        <v>415461.2262734032</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415461.2262734032</v>
+        <v>415461.226273403</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415461.2262734029</v>
+        <v>415461.226273403</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415461.2262734032</v>
+        <v>415461.226273403</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394445.1187543757</v>
+        <v>394445.1187543755</v>
       </c>
     </row>
     <row r="16">
@@ -26326,7 +26328,7 @@
         <v>165645.5239266782</v>
       </c>
       <c r="G2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="H2" t="n">
         <v>174468.706157899</v>
@@ -26338,16 +26340,16 @@
         <v>174468.7061578989</v>
       </c>
       <c r="K2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="L2" t="n">
         <v>174468.7061578989</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="N2" t="n">
         <v>174468.706157899</v>
-      </c>
-      <c r="M2" t="n">
-        <v>174468.706157899</v>
-      </c>
-      <c r="N2" t="n">
-        <v>174468.7061578989</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
@@ -26418,16 +26420,16 @@
         <v>8092.707817725995</v>
       </c>
       <c r="C4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="D4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="E4" t="n">
         <v>8092.707817725995</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26448,16 +26450,16 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8092.707817725994</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
     </row>
     <row r="5">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42555.97458541481</v>
+        <v>42555.97458541483</v>
       </c>
       <c r="C6" t="n">
-        <v>111429.7311671046</v>
+        <v>111429.7311671047</v>
       </c>
       <c r="D6" t="n">
         <v>111429.7311671047</v>
@@ -26534,19 +26536,19 @@
         <v>145057.3311671047</v>
       </c>
       <c r="G6" t="n">
-        <v>141538.8833506277</v>
+        <v>141538.8833506278</v>
       </c>
       <c r="H6" t="n">
         <v>151267.9263247949</v>
       </c>
       <c r="I6" t="n">
+        <v>151267.9263247948</v>
+      </c>
+      <c r="J6" t="n">
+        <v>97495.4154345854</v>
+      </c>
+      <c r="K6" t="n">
         <v>151267.9263247949</v>
-      </c>
-      <c r="J6" t="n">
-        <v>97495.41543458543</v>
-      </c>
-      <c r="K6" t="n">
-        <v>151267.9263247948</v>
       </c>
       <c r="L6" t="n">
         <v>151267.9263247949</v>
@@ -34702,7 +34704,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34713,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,13 +35503,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35729,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,13 +37551,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37783,10 +37785,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>12.72573192223801</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38111,7 +38113,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1045743.813788243</v>
+        <v>941511.3155248003</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -658,14 +658,14 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>19.20171008547518</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.45968987784987</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="W5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>30.87444881483986</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>179.7521130251342</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="E8" t="n">
         <v>205.5178444382804</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>104.6224667287184</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>21.16030022554292</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>8.438698031532754</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,61 +1621,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>141.8456729477347</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1928,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="19">
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>132.1946129538656</v>
       </c>
       <c r="X21" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,61 +2247,61 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="24">
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>62.30512642017684</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.668137753378074</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>71.98374608812813</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>44.60315859947005</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,23 +3028,23 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>113.1682173871407</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>63.81846325436216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,23 +3265,23 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>68.57463348860362</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,58 +3435,58 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>45.95195451506962</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,25 +3745,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>47.29627918133474</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>62.56282600373781</v>
       </c>
     </row>
     <row r="43">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>41.3997004011064</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,20 +4103,20 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
+        <v>120.0500723064956</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4336,7 +4336,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U2" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V2" t="n">
-        <v>651.2927635848137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>651.2927635848137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>651.2927635848137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.7152536647734</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>518.7152536647734</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>518.7152536647734</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>518.7152536647734</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7152536647734</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X3" t="n">
-        <v>518.7152536647734</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y3" t="n">
-        <v>518.7152536647734</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4524,16 +4524,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4570,43 +4570,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W5" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="W5" t="n">
-        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
         <v>431.628992076841</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="C6" t="n">
-        <v>446.2622584721643</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="D6" t="n">
-        <v>446.2622584721643</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="E6" t="n">
-        <v>415.0759465379826</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4655,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>163.7301181809632</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4746,31 +4746,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C8" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D8" t="n">
         <v>224.0352098159517</v>
@@ -4807,13 +4807,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>340.5829991502264</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C9" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4889,16 +4889,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M9" t="n">
-        <v>366.5706756325438</v>
-      </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X9" t="n">
-        <v>716.3921184311838</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y9" t="n">
-        <v>508.7983361702945</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4983,31 +4983,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5044,7 +5044,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
         <v>176.2910403306274</v>
@@ -5065,22 +5065,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T11" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X11" t="n">
         <v>224.0352098159517</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>813.547440347533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>664.6130306862817</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5123,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,10 +5281,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>648.6540332037905</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5363,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
+        <v>345.2616536067974</v>
+      </c>
+      <c r="N15" t="n">
         <v>435.9652341458732</v>
-      </c>
-      <c r="N15" t="n">
-        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>648.6540332037905</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
-        <v>648.6540332037905</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y15" t="n">
-        <v>648.6540332037905</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5697,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V20" t="n">
-        <v>30.58726043968704</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>109.8523314442283</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6071,10 +6071,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
         <v>473.4149733950735</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>463.7839815061678</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>463.7839815061678</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6186,7 +6186,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6211,7 +6211,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>283.2696759935595</v>
+        <v>554.1102621044483</v>
       </c>
       <c r="C27" t="n">
-        <v>283.2696759935595</v>
+        <v>379.6572328233214</v>
       </c>
       <c r="D27" t="n">
-        <v>134.3352663323082</v>
+        <v>230.7228231620701</v>
       </c>
       <c r="E27" t="n">
-        <v>134.3352663323082</v>
+        <v>230.7228231620701</v>
       </c>
       <c r="F27" t="n">
-        <v>134.3352663323082</v>
+        <v>230.7228231620701</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>91.99199774468559</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>91.99199774468559</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6341,16 +6341,16 @@
         <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>526.7184526376595</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2696759935595</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X27" t="n">
-        <v>283.2696759935595</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y27" t="n">
-        <v>283.2696759935595</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V30" t="n">
-        <v>454.3181732824481</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W30" t="n">
-        <v>210.869396638348</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>165.8157010833278</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6660,13 +6660,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6733,16 +6733,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
         <v>477.1596022224361</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>456.7918502977974</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C33" t="n">
-        <v>282.3388210166704</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D33" t="n">
-        <v>133.4044113554191</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>625.0071873178654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>625.0071873178654</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>625.0071873178654</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>625.0071873178654</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X33" t="n">
-        <v>625.0071873178654</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y33" t="n">
-        <v>625.0071873178654</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>519.185909765926</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>284.0338015341832</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>284.0338015341832</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>284.0338015341832</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.0338015341832</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C38" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="C38" t="n">
-        <v>506.1786963984129</v>
-      </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>179.0663943744209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>179.0663943744209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>179.0663943744209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>65.69725878200022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7262,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7417,16 +7417,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7444,19 +7444,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y41" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="V41" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="W41" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="X41" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>175.6788825605179</v>
       </c>
     </row>
     <row r="43">
@@ -7596,10 +7596,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7657,13 +7657,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7678,13 +7678,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
         <v>614.4775954922324</v>
@@ -7693,7 +7693,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7751,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
@@ -8069,16 +8069,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,10 +8303,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9959,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,7 +10196,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10448,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>189.8183595007702</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>145.1853905775511</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22843,13 +22843,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>178.2115505507205</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>126.7706316405611</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>46.18926905584058</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E8" t="n">
         <v>176.4125256339814</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>158.0184369674574</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>101.150518474759</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9355493385884</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>198.7016825117764</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>164.269800956783</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23390,16 +23390,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>65.32175003622348</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>122.9433375000607</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0776384305107</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>15.79940750766625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>197.4613668105558</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>227.1458758085334</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23816,25 +23816,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="19">
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>338.0479125612334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>275.320613684763</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24101,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>119.500370207054</v>
       </c>
       <c r="X21" t="n">
-        <v>116.1075087528021</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="24">
@@ -24293,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24338,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>189.3898567407428</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24496,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>135.6753794098326</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>17.41288676328695</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24581,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24645,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,19 +24727,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>106.5525690386006</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>161.1698266040074</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>59.540281601175</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25013,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>136.3462654404594</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25253,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25283,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>157.3667485923712</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25472,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25487,10 +25487,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>43.44467833634546</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25526,10 +25526,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25575,7 +25575,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>117.0281136687963</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,25 +25633,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>170.4039740891423</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>110.3488012740662</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>143.1198697735666</v>
       </c>
     </row>
     <row r="43">
@@ -25836,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>95.94381676210423</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>105.8913097744792</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,10 +26073,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>394445.1187543755</v>
+        <v>394445.1187543757</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>394445.1187543755</v>
+        <v>394445.1187543756</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394445.1187543757</v>
+        <v>394445.1187543756</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415461.2262734032</v>
+        <v>415461.226273403</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415461.2262734029</v>
+        <v>415461.2262734031</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415461.2262734032</v>
+        <v>415461.226273403</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415461.226273403</v>
+        <v>415461.2262734031</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394445.1187543755</v>
+        <v>394445.1187543756</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394445.1187543756</v>
+        <v>394445.1187543755</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="C2" t="n">
         <v>165645.5239266781</v>
@@ -26334,19 +26334,19 @@
         <v>174468.706157899</v>
       </c>
       <c r="I2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="J2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="K2" t="n">
         <v>174468.7061578989</v>
       </c>
-      <c r="J2" t="n">
-        <v>174468.7061578989</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>174468.706157899</v>
       </c>
-      <c r="L2" t="n">
-        <v>174468.7061578989</v>
-      </c>
       <c r="M2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="N2" t="n">
         <v>174468.706157899</v>
@@ -26420,7 +26420,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="C4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="D4" t="n">
         <v>8092.707817725994</v>
@@ -26429,7 +26429,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26456,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
+        <v>8092.707817725995</v>
+      </c>
+      <c r="P4" t="n">
         <v>8092.707817725994</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8092.707817725995</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42555.97458541483</v>
+        <v>29917.81243055438</v>
       </c>
       <c r="C6" t="n">
-        <v>111429.7311671047</v>
+        <v>98791.56901224417</v>
       </c>
       <c r="D6" t="n">
-        <v>111429.7311671047</v>
+        <v>98791.56901224414</v>
       </c>
       <c r="E6" t="n">
-        <v>145057.3311671047</v>
+        <v>132419.1690122442</v>
       </c>
       <c r="F6" t="n">
-        <v>145057.3311671047</v>
+        <v>132419.1690122442</v>
       </c>
       <c r="G6" t="n">
-        <v>141538.8833506278</v>
+        <v>129320.8727305873</v>
       </c>
       <c r="H6" t="n">
-        <v>151267.9263247949</v>
+        <v>139049.9157047544</v>
       </c>
       <c r="I6" t="n">
-        <v>151267.9263247948</v>
+        <v>139049.9157047544</v>
       </c>
       <c r="J6" t="n">
-        <v>97495.4154345854</v>
+        <v>85277.40481454502</v>
       </c>
       <c r="K6" t="n">
-        <v>151267.9263247949</v>
+        <v>139049.9157047544</v>
       </c>
       <c r="L6" t="n">
-        <v>151267.9263247949</v>
+        <v>139049.9157047544</v>
       </c>
       <c r="M6" t="n">
-        <v>151267.9263247949</v>
+        <v>139049.9157047544</v>
       </c>
       <c r="N6" t="n">
-        <v>151267.9263247949</v>
+        <v>139049.9157047544</v>
       </c>
       <c r="O6" t="n">
-        <v>145057.3311671047</v>
+        <v>132419.1690122442</v>
       </c>
       <c r="P6" t="n">
-        <v>145057.3311671047</v>
+        <v>132419.1690122442</v>
       </c>
     </row>
   </sheetData>
@@ -34704,10 +34704,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
@@ -34789,16 +34789,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M9" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>91.61977832229879</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37390,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
